--- a/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC2.1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC2.1_TC1.xlsx
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0.1572152382704014</v>
+        <v>0.1067931366085375</v>
       </c>
       <c r="C11" s="3" t="n"/>
       <c r="D11" s="7" t="inlineStr">
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2699667541506972</v>
+        <v>0.257156682201655</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.26996675415069715, 'ngram_match_score': 0.15721523827040143, 'weighted_ngram_match_score': 0.16746190491466573, 'syntax_match_score': 0.54, 'dataflow_match_score': 0.21518987341772153}</t>
+          <t>{'codebleu': 0.257156682201655, 'ngram_match_score': 0.10679313660853745, 'weighted_ngram_match_score': 0.1160108073879559, 'syntax_match_score': 0.54, 'dataflow_match_score': 0.26582278481012656}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.931474143556974</v>
+        <v>0.933243252828546</v>
       </c>
       <c r="C13" s="3" t="n"/>
       <c r="D13" s="3" t="inlineStr">
